--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E6E1F-DF7E-4D09-809D-42F0D6292A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35283F-78C2-4F13-9B3B-FC49FA512595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="770" windowWidth="19190" windowHeight="10070" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
-    <t>Orig</t>
-  </si>
-  <si>
-    <t>Dest</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>bankC</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,322 +516,322 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10000</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5000</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3000</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2000</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>5000</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>5000</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>8000</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>4000</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14">
         <v>4000</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
       <c r="C15">
         <v>4000</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>4000</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -852,145 +852,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35283F-78C2-4F13-9B3B-FC49FA512595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570F8D6-6ABE-4D05-B316-BB7902163898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Second layer to Third layer</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7BB08-EF81-4462-9806-C1907D0235CB}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -516,22 +516,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -568,10 +568,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -588,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -628,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -648,10 +648,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -688,10 +688,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -708,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>8000</v>
@@ -728,15 +728,15 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -748,18 +748,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -768,18 +768,18 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>4000</v>
@@ -788,18 +788,18 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>4000</v>
@@ -808,18 +808,18 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
       <c r="C16">
         <v>4000</v>
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -844,21 +844,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD939F-C75E-4971-8FEF-9E20DD36F658}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -877,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,32 +888,32 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -921,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -932,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -954,32 +954,32 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -987,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570F8D6-6ABE-4D05-B316-BB7902163898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAEE29-290A-4AF8-A287-79D2718F722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -135,13 +135,13 @@
     <t>bankC</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Orig</t>
+  </si>
+  <si>
+    <t>Dest</t>
   </si>
 </sst>
 </file>
@@ -501,25 +501,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7BB08-EF81-4462-9806-C1907D0235CB}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -534,7 +534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -774,7 +774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -794,7 +794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -844,15 +844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD939F-C75E-4971-8FEF-9E20DD36F658}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -938,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -971,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -982,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
